--- a/source/C_CERTIFICATES .xlsx
+++ b/source/C_CERTIFICATES .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
@@ -299,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -395,21 +395,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -440,11 +425,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -481,62 +478,47 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -616,7 +598,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -651,7 +633,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,34 +842,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:27" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -927,14 +909,14 @@
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
     </row>
-    <row r="2" spans="1:27" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="16"/>
+    <row r="2" spans="1:27" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -968,14 +950,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="51" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="15"/>
+    <row r="3" spans="1:27" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="26" t="s">
@@ -1027,7 +1009,7 @@
       </c>
       <c r="AA3" s="18"/>
     </row>
-    <row r="4" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1046,73 +1028,83 @@
       <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="32" t="s">
+      <c r="S4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="W4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="32" t="s">
+      <c r="X4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="Y4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="32" t="s">
+      <c r="Z4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA4" s="32" t="s">
+      <c r="AA4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:W3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="Y1:AA1"/>
@@ -1122,17 +1114,6 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="V1:V2"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
